--- a/biology/Virologie/Dichorhavirus/Dichorhavirus.xlsx
+++ b/biology/Virologie/Dichorhavirus/Dichorhavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichorhavirus est un genre de virus de la famille des Rhabdoviridae qui comprend cinq espèces. Ce sont des virus à ARN à simple brin à polarité négative qui infectent les plantes (phytovirus). Ce genre est classé dans le groupe V de la classification Baltimore.
 Certains de ces virus sont des agents de la léprose des agrumes.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon CITV[2]. :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon CITV. :
 Citrus chlorotic spot virus (CiLV)
 Citrus leprosis N virus (CiLV-N)
 Clerodendrum chlorotic spot virus (ClCSV)
@@ -547,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Dichorhavirus », dérive du nom de la famille (Rhabdoviridae) dont il retient la première syllabe (rha) précédé du préfixe (Dicho, dérivé du grec ancien δίχα, dicha) pour désigner des virus dont le génome est segmenté en deux parties[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Dichorhavirus », dérive du nom de la famille (Rhabdoviridae) dont il retient la première syllabe (rha) précédé du préfixe (Dicho, dérivé du grec ancien δίχα, dicha) pour désigner des virus dont le génome est segmenté en deux parties,.
 </t>
         </is>
       </c>
